--- a/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$113</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244595</t>
   </si>
@@ -688,18 +688,6 @@
   </si>
   <si>
     <t>001-042-000241501</t>
-  </si>
-  <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000237479</t>
-  </si>
-  <si>
-    <t>001-042-000237479</t>
-  </si>
-  <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000237233</t>
-  </si>
-  <si>
-    <t>001-042-000237233</t>
   </si>
   <si>
     <t>Path</t>
@@ -1039,26 +1027,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="2"/>
+    <col min="1" max="2" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1098,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +1102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1138,7 +1126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1146,7 +1134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1162,7 +1150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1186,7 +1174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1194,7 +1182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1202,7 +1190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1210,7 +1198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1218,7 +1206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1226,7 +1214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1234,7 +1222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1242,7 +1230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1250,7 +1238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -1258,7 +1246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -1266,7 +1254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1274,7 +1262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -1282,7 +1270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1290,7 +1278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1298,7 +1286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -1306,7 +1294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1314,7 +1302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1322,7 +1310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -1330,7 +1318,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -1338,7 +1326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -1346,7 +1334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1354,7 +1342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -1362,7 +1350,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1370,7 +1358,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -1378,7 +1366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -1386,7 +1374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -1394,7 +1382,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
@@ -1402,7 +1390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -1410,7 +1398,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -1418,7 +1406,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
@@ -1426,7 +1414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -1434,7 +1422,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -1442,7 +1430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -1450,7 +1438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -1458,7 +1446,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -1466,7 +1454,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -1474,7 +1462,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -1482,7 +1470,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -1490,7 +1478,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -1498,7 +1486,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -1506,7 +1494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -1514,7 +1502,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -1522,7 +1510,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -1530,7 +1518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -1538,7 +1526,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -1546,7 +1534,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -1554,7 +1542,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -1562,7 +1550,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>126</v>
       </c>
@@ -1570,7 +1558,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>128</v>
       </c>
@@ -1578,7 +1566,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
@@ -1586,7 +1574,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
@@ -1594,7 +1582,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -1602,7 +1590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>136</v>
       </c>
@@ -1610,7 +1598,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>138</v>
       </c>
@@ -1618,7 +1606,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>140</v>
       </c>
@@ -1626,7 +1614,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -1634,7 +1622,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>144</v>
       </c>
@@ -1642,7 +1630,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>146</v>
       </c>
@@ -1650,7 +1638,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>148</v>
       </c>
@@ -1658,7 +1646,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>150</v>
       </c>
@@ -1666,7 +1654,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>152</v>
       </c>
@@ -1674,7 +1662,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>154</v>
       </c>
@@ -1682,7 +1670,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>156</v>
       </c>
@@ -1690,7 +1678,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>158</v>
       </c>
@@ -1698,7 +1686,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>160</v>
       </c>
@@ -1706,7 +1694,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>162</v>
       </c>
@@ -1714,7 +1702,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>164</v>
       </c>
@@ -1722,7 +1710,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>166</v>
       </c>
@@ -1730,7 +1718,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>168</v>
       </c>
@@ -1738,7 +1726,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>170</v>
       </c>
@@ -1746,7 +1734,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>172</v>
       </c>
@@ -1754,7 +1742,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
@@ -1762,7 +1750,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>176</v>
       </c>
@@ -1770,7 +1758,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>178</v>
       </c>
@@ -1778,7 +1766,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>180</v>
       </c>
@@ -1786,7 +1774,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>182</v>
       </c>
@@ -1794,7 +1782,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>184</v>
       </c>
@@ -1802,7 +1790,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>186</v>
       </c>
@@ -1810,7 +1798,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>188</v>
       </c>
@@ -1818,7 +1806,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>190</v>
       </c>
@@ -1826,7 +1814,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>192</v>
       </c>
@@ -1834,7 +1822,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>194</v>
       </c>
@@ -1842,7 +1830,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>196</v>
       </c>
@@ -1850,7 +1838,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>198</v>
       </c>
@@ -1858,7 +1846,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>200</v>
       </c>
@@ -1866,7 +1854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>202</v>
       </c>
@@ -1874,7 +1862,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>204</v>
       </c>
@@ -1882,7 +1870,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>206</v>
       </c>
@@ -1890,7 +1878,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>208</v>
       </c>
@@ -1898,7 +1886,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>210</v>
       </c>
@@ -1906,7 +1894,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>212</v>
       </c>
@@ -1914,7 +1902,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>214</v>
       </c>
@@ -1922,7 +1910,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>216</v>
       </c>
@@ -1930,7 +1918,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>218</v>
       </c>
@@ -1938,7 +1926,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>220</v>
       </c>
@@ -1946,24 +1934,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B115"/>
+  <autoFilter ref="A1:B113"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
@@ -15,32 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$110</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
-  <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244595</t>
-  </si>
-  <si>
-    <t>001-042-000244595</t>
-  </si>
-  <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244593</t>
-  </si>
-  <si>
-    <t>001-042-000244593</t>
-  </si>
-  <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244306</t>
-  </si>
-  <si>
-    <t>001-042-000244306</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244304</t>
   </si>
@@ -1027,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1040,10 +1022,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,32 +1892,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B113"/>
+  <autoFilter ref="A1:B110"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$202</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244304</t>
   </si>
@@ -48,12 +48,6 @@
     <t>001-042-000244295</t>
   </si>
   <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244294</t>
-  </si>
-  <si>
-    <t>001-042-000244294</t>
-  </si>
-  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244293</t>
   </si>
   <si>
@@ -570,24 +564,84 @@
     <t>001-042-000242342</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242340</t>
+  </si>
+  <si>
+    <t>001-042-000242340</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242339</t>
+  </si>
+  <si>
+    <t>001-042-000242339</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242338</t>
   </si>
   <si>
     <t>001-042-000242338</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242337</t>
+  </si>
+  <si>
+    <t>001-042-000242337</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242330</t>
   </si>
   <si>
     <t>001-042-000242330</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242329</t>
+  </si>
+  <si>
+    <t>001-042-000242329</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242328</t>
+  </si>
+  <si>
+    <t>001-042-000242328</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242327</t>
+  </si>
+  <si>
+    <t>001-042-000242327</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242326</t>
+  </si>
+  <si>
+    <t>001-042-000242326</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242325</t>
+  </si>
+  <si>
+    <t>001-042-000242325</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242323</t>
+  </si>
+  <si>
+    <t>001-042-000242323</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242322</t>
   </si>
   <si>
     <t>001-042-000242322</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242321</t>
+  </si>
+  <si>
+    <t>001-042-000242321</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242320</t>
   </si>
   <si>
@@ -612,24 +666,204 @@
     <t>001-042-000242317</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242316</t>
+  </si>
+  <si>
+    <t>001-042-000242316</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242315</t>
   </si>
   <si>
     <t>001-042-000242315</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242314</t>
+  </si>
+  <si>
+    <t>001-042-000242314</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242313</t>
+  </si>
+  <si>
+    <t>001-042-000242313</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242312</t>
+  </si>
+  <si>
+    <t>001-042-000242312</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242311</t>
+  </si>
+  <si>
+    <t>001-042-000242311</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242310</t>
+  </si>
+  <si>
+    <t>001-042-000242310</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000242132</t>
   </si>
   <si>
     <t>001-042-000242132</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241972</t>
+  </si>
+  <si>
+    <t>001-042-000241972</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241961</t>
+  </si>
+  <si>
+    <t>001-042-000241961</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241959</t>
+  </si>
+  <si>
+    <t>001-042-000241959</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241951</t>
+  </si>
+  <si>
+    <t>001-042-000241951</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241950</t>
+  </si>
+  <si>
+    <t>001-042-000241950</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241949</t>
+  </si>
+  <si>
+    <t>001-042-000241949</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241947</t>
+  </si>
+  <si>
+    <t>001-042-000241947</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241946</t>
+  </si>
+  <si>
+    <t>001-042-000241946</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241945</t>
+  </si>
+  <si>
+    <t>001-042-000241945</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241944</t>
+  </si>
+  <si>
+    <t>001-042-000241944</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241943</t>
+  </si>
+  <si>
+    <t>001-042-000241943</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241941</t>
+  </si>
+  <si>
+    <t>001-042-000241941</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241940</t>
+  </si>
+  <si>
+    <t>001-042-000241940</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241937</t>
+  </si>
+  <si>
+    <t>001-042-000241937</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241933</t>
+  </si>
+  <si>
+    <t>001-042-000241933</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241926</t>
+  </si>
+  <si>
+    <t>001-042-000241926</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241775</t>
+  </si>
+  <si>
+    <t>001-042-000241775</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241774</t>
+  </si>
+  <si>
+    <t>001-042-000241774</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241761</t>
+  </si>
+  <si>
+    <t>001-042-000241761</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241670</t>
   </si>
   <si>
     <t>001-042-000241670</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241664</t>
+  </si>
+  <si>
+    <t>001-042-000241664</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241663</t>
+  </si>
+  <si>
+    <t>001-042-000241663</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241662</t>
+  </si>
+  <si>
+    <t>001-042-000241662</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241661</t>
+  </si>
+  <si>
+    <t>001-042-000241661</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241547</t>
+  </si>
+  <si>
+    <t>001-042-000241547</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241546</t>
   </si>
   <si>
@@ -648,28 +882,346 @@
     <t>001-042-000241544</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241543</t>
+  </si>
+  <si>
+    <t>001-042-000241543</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241542</t>
+  </si>
+  <si>
+    <t>001-042-000241542</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241540</t>
   </si>
   <si>
     <t>001-042-000241540</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241522</t>
+  </si>
+  <si>
+    <t>001-042-000241522</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241520</t>
   </si>
   <si>
     <t>001-042-000241520</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241517</t>
+  </si>
+  <si>
+    <t>001-042-000241517</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241514</t>
   </si>
   <si>
     <t>001-042-000241514</t>
   </si>
   <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241510</t>
+  </si>
+  <si>
+    <t>001-042-000241510</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241506</t>
+  </si>
+  <si>
+    <t>001-042-000241506</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241501</t>
   </si>
   <si>
     <t>001-042-000241501</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241428</t>
+  </si>
+  <si>
+    <t>001-042-000241428</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241231</t>
+  </si>
+  <si>
+    <t>001-042-000241231</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241225</t>
+  </si>
+  <si>
+    <t>001-042-000241225</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241222</t>
+  </si>
+  <si>
+    <t>001-042-000241222</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241220</t>
+  </si>
+  <si>
+    <t>001-042-000241220</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241189</t>
+  </si>
+  <si>
+    <t>001-042-000241189</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241170</t>
+  </si>
+  <si>
+    <t>001-042-000241170</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241169</t>
+  </si>
+  <si>
+    <t>001-042-000241169</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241167</t>
+  </si>
+  <si>
+    <t>001-042-000241167</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241166</t>
+  </si>
+  <si>
+    <t>001-042-000241166</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241165</t>
+  </si>
+  <si>
+    <t>001-042-000241165</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241164</t>
+  </si>
+  <si>
+    <t>001-042-000241164</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241163</t>
+  </si>
+  <si>
+    <t>001-042-000241163</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241106</t>
+  </si>
+  <si>
+    <t>001-042-000241106</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000241105</t>
+  </si>
+  <si>
+    <t>001-042-000241105</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240954</t>
+  </si>
+  <si>
+    <t>001-042-000240954</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240953</t>
+  </si>
+  <si>
+    <t>001-042-000240953</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240952</t>
+  </si>
+  <si>
+    <t>001-042-000240952</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240951</t>
+  </si>
+  <si>
+    <t>001-042-000240951</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240950</t>
+  </si>
+  <si>
+    <t>001-042-000240950</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240949</t>
+  </si>
+  <si>
+    <t>001-042-000240949</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240948</t>
+  </si>
+  <si>
+    <t>001-042-000240948</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240947</t>
+  </si>
+  <si>
+    <t>001-042-000240947</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240945</t>
+  </si>
+  <si>
+    <t>001-042-000240945</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240715</t>
+  </si>
+  <si>
+    <t>001-042-000240715</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240700</t>
+  </si>
+  <si>
+    <t>001-042-000240700</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240647</t>
+  </si>
+  <si>
+    <t>001-042-000240647</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240604</t>
+  </si>
+  <si>
+    <t>001-042-000240604</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240603</t>
+  </si>
+  <si>
+    <t>001-042-000240603</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240602</t>
+  </si>
+  <si>
+    <t>001-042-000240602</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240601</t>
+  </si>
+  <si>
+    <t>001-042-000240601</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240600</t>
+  </si>
+  <si>
+    <t>001-042-000240600</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240599</t>
+  </si>
+  <si>
+    <t>001-042-000240599</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240598</t>
+  </si>
+  <si>
+    <t>001-042-000240598</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240597</t>
+  </si>
+  <si>
+    <t>001-042-000240597</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240596</t>
+  </si>
+  <si>
+    <t>001-042-000240596</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240595</t>
+  </si>
+  <si>
+    <t>001-042-000240595</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240405</t>
+  </si>
+  <si>
+    <t>001-042-000240405</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240402</t>
+  </si>
+  <si>
+    <t>001-042-000240402</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240401</t>
+  </si>
+  <si>
+    <t>001-042-000240401</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240395</t>
+  </si>
+  <si>
+    <t>001-042-000240395</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240394</t>
+  </si>
+  <si>
+    <t>001-042-000240394</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240393</t>
+  </si>
+  <si>
+    <t>001-042-000240393</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240392</t>
+  </si>
+  <si>
+    <t>001-042-000240392</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240391</t>
+  </si>
+  <si>
+    <t>001-042-000240391</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240390</t>
+  </si>
+  <si>
+    <t>001-042-000240390</t>
+  </si>
+  <si>
+    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240389</t>
+  </si>
+  <si>
+    <t>001-042-000240389</t>
   </si>
   <si>
     <t>Path</t>
@@ -1009,26 +1561,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="2"/>
+    <col min="1" max="2" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1100,7 +1652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1124,7 +1676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1132,7 +1684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +1692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1148,7 +1700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1164,7 +1716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +1724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1180,7 +1732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1188,7 +1740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1196,7 +1748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1204,7 +1756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1220,7 +1772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -1228,7 +1780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -1236,7 +1788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1244,7 +1796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -1252,7 +1804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1260,7 +1812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1268,7 +1820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -1276,7 +1828,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1284,7 +1836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1292,7 +1844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -1300,7 +1852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -1308,7 +1860,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -1316,7 +1868,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1324,7 +1876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -1332,7 +1884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1340,7 +1892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -1348,7 +1900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -1356,7 +1908,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -1364,7 +1916,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
@@ -1372,7 +1924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -1380,7 +1932,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -1388,7 +1940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
@@ -1396,7 +1948,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -1404,7 +1956,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -1412,7 +1964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -1420,7 +1972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -1428,7 +1980,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -1436,7 +1988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -1444,7 +1996,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -1452,7 +2004,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -1460,7 +2012,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -1468,7 +2020,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -1476,7 +2028,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -1484,7 +2036,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -1492,7 +2044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -1500,7 +2052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -1508,7 +2060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -1516,7 +2068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -1524,7 +2076,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -1532,7 +2084,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>126</v>
       </c>
@@ -1540,7 +2092,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>128</v>
       </c>
@@ -1548,7 +2100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
@@ -1556,7 +2108,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
@@ -1564,7 +2116,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -1572,7 +2124,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>136</v>
       </c>
@@ -1580,7 +2132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>138</v>
       </c>
@@ -1588,7 +2140,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>140</v>
       </c>
@@ -1596,7 +2148,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -1604,7 +2156,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>144</v>
       </c>
@@ -1612,7 +2164,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>146</v>
       </c>
@@ -1620,7 +2172,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>148</v>
       </c>
@@ -1628,7 +2180,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>150</v>
       </c>
@@ -1636,7 +2188,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>152</v>
       </c>
@@ -1644,7 +2196,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>154</v>
       </c>
@@ -1652,7 +2204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>156</v>
       </c>
@@ -1660,7 +2212,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>158</v>
       </c>
@@ -1668,7 +2220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>160</v>
       </c>
@@ -1676,7 +2228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>162</v>
       </c>
@@ -1684,7 +2236,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>164</v>
       </c>
@@ -1692,7 +2244,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>166</v>
       </c>
@@ -1700,7 +2252,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>168</v>
       </c>
@@ -1708,7 +2260,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>170</v>
       </c>
@@ -1716,7 +2268,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>172</v>
       </c>
@@ -1724,7 +2276,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
@@ -1732,7 +2284,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>176</v>
       </c>
@@ -1740,7 +2292,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>178</v>
       </c>
@@ -1748,7 +2300,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>180</v>
       </c>
@@ -1756,7 +2308,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>182</v>
       </c>
@@ -1764,7 +2316,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>184</v>
       </c>
@@ -1772,7 +2324,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>186</v>
       </c>
@@ -1780,7 +2332,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>188</v>
       </c>
@@ -1788,7 +2340,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>190</v>
       </c>
@@ -1796,7 +2348,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>192</v>
       </c>
@@ -1804,7 +2356,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>194</v>
       </c>
@@ -1812,7 +2364,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>196</v>
       </c>
@@ -1820,7 +2372,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>198</v>
       </c>
@@ -1828,7 +2380,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>200</v>
       </c>
@@ -1836,7 +2388,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>202</v>
       </c>
@@ -1844,7 +2396,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>204</v>
       </c>
@@ -1852,7 +2404,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>206</v>
       </c>
@@ -1860,7 +2412,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>208</v>
       </c>
@@ -1868,7 +2420,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>210</v>
       </c>
@@ -1876,7 +2428,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>212</v>
       </c>
@@ -1884,7 +2436,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>214</v>
       </c>
@@ -1892,8 +2444,744 @@
         <v>215</v>
       </c>
     </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B110"/>
+  <autoFilter ref="A1:B202"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
@@ -15,14 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$201</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244304</t>
   </si>
@@ -1186,12 +1186,6 @@
   </si>
   <si>
     <t>001-042-000240395</t>
-  </si>
-  <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240394</t>
-  </si>
-  <si>
-    <t>001-042-000240394</t>
   </si>
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240393</t>
@@ -1561,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1574,10 +1568,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,16 +3166,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B202"/>
+  <autoFilter ref="A1:B201"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
@@ -15,14 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$198</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244304</t>
   </si>
@@ -1092,12 +1092,6 @@
     <t>001-042-000240715</t>
   </si>
   <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240700</t>
-  </si>
-  <si>
-    <t>001-042-000240700</t>
-  </si>
-  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240647</t>
   </si>
   <si>
@@ -1158,12 +1152,6 @@
     <t>001-042-000240596</t>
   </si>
   <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240595</t>
-  </si>
-  <si>
-    <t>001-042-000240595</t>
-  </si>
-  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240405</t>
   </si>
   <si>
@@ -1180,12 +1168,6 @@
   </si>
   <si>
     <t>001-042-000240401</t>
-  </si>
-  <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240395</t>
-  </si>
-  <si>
-    <t>001-042-000240395</t>
   </si>
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240393</t>
@@ -1555,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1568,10 +1550,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3142,32 +3124,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B201"/>
+  <autoFilter ref="A1:B198"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Archivos/UiTree.xlsx
@@ -15,14 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$H$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$I$195</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="413">
   <si>
     <t>Path</t>
   </si>
@@ -1044,28 +1044,28 @@
     <t>001-042-000240954</t>
   </si>
   <si>
+    <t>240954</t>
+  </si>
+  <si>
+    <t>06-00000055</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240953</t>
   </si>
   <si>
     <t>001-042-000240953</t>
   </si>
   <si>
+    <t>240953</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240952</t>
   </si>
   <si>
     <t>001-042-000240952</t>
   </si>
   <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240951</t>
-  </si>
-  <si>
-    <t>001-042-000240951</t>
-  </si>
-  <si>
-    <t>240951</t>
-  </si>
-  <si>
-    <t>06-00000055</t>
+    <t>240952</t>
   </si>
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240950</t>
@@ -1074,6 +1074,9 @@
     <t>001-042-000240950</t>
   </si>
   <si>
+    <t>240950</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240949</t>
   </si>
   <si>
@@ -1086,19 +1089,19 @@
     <t>001-042-000240948</t>
   </si>
   <si>
+    <t>240948</t>
+  </si>
+  <si>
+    <t>06-00000056</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240947</t>
   </si>
   <si>
     <t>001-042-000240947</t>
   </si>
   <si>
-    <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240945</t>
-  </si>
-  <si>
-    <t>001-042-000240945</t>
-  </si>
-  <si>
-    <t>240945</t>
+    <t>240947</t>
   </si>
   <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240715</t>
@@ -1107,6 +1110,9 @@
     <t>001-042-000240715</t>
   </si>
   <si>
+    <t>240715</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240647</t>
   </si>
   <si>
@@ -1131,6 +1137,9 @@
     <t>001-042-000240602</t>
   </si>
   <si>
+    <t>240602</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240601</t>
   </si>
   <si>
@@ -1155,18 +1164,27 @@
     <t>001-042-000240598</t>
   </si>
   <si>
+    <t>240598</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240597</t>
   </si>
   <si>
     <t>001-042-000240597</t>
   </si>
   <si>
+    <t>240597</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240596</t>
   </si>
   <si>
     <t>001-042-000240596</t>
   </si>
   <si>
+    <t>240596</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240405</t>
   </si>
   <si>
@@ -1185,6 +1203,9 @@
     <t>001-042-000240401</t>
   </si>
   <si>
+    <t>240401</t>
+  </si>
+  <si>
     <t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240393</t>
   </si>
   <si>
@@ -1233,19 +1254,13 @@
     <t>Material</t>
   </si>
   <si>
+    <t>Nro. Documento</t>
+  </si>
+  <si>
     <t>Factura no contenida en la ZMM023</t>
   </si>
   <si>
-    <t>Nro. Documento</t>
-  </si>
-  <si>
     <t>Factura Contabilizada</t>
-  </si>
-  <si>
-    <t>600006150</t>
-  </si>
-  <si>
-    <t>600006151</t>
   </si>
 </sst>
 </file>
@@ -1581,15 +1596,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J203" sqref="J203"/>
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1600,25 +1616,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D1" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F1" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="G1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="H1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="I1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1640,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1651,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1662,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1673,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1684,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1695,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1706,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1717,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1728,7 +1744,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1739,7 +1755,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1766,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1761,7 +1777,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1772,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1783,7 +1799,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1794,7 +1810,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1821,7 @@
         <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1816,7 +1832,7 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1827,7 +1843,7 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1838,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1849,7 +1865,7 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1860,7 +1876,7 @@
         <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1871,7 +1887,7 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1882,7 +1898,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1893,7 +1909,7 @@
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1904,7 +1920,7 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1915,7 +1931,7 @@
         <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1926,7 +1942,7 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1937,7 +1953,7 @@
         <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1948,7 +1964,7 @@
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1959,7 +1975,7 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1970,7 +1986,7 @@
         <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1981,7 +1997,7 @@
         <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -1992,7 +2008,7 @@
         <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2003,7 +2019,7 @@
         <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2014,7 +2030,7 @@
         <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2025,7 +2041,7 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2036,7 +2052,7 @@
         <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2047,7 +2063,7 @@
         <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2058,7 +2074,7 @@
         <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2069,7 +2085,7 @@
         <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2080,7 +2096,7 @@
         <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2091,7 +2107,7 @@
         <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2102,7 +2118,7 @@
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2113,7 +2129,7 @@
         <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2124,7 +2140,7 @@
         <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2135,7 +2151,7 @@
         <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2146,7 +2162,7 @@
         <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2173,7 @@
         <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2168,7 +2184,7 @@
         <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2179,7 +2195,7 @@
         <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2190,7 +2206,7 @@
         <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2201,7 +2217,7 @@
         <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2212,7 +2228,7 @@
         <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2223,7 +2239,7 @@
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2234,7 +2250,7 @@
         <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2261,7 @@
         <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2256,7 +2272,7 @@
         <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2267,7 +2283,7 @@
         <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2278,7 +2294,7 @@
         <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2289,7 +2305,7 @@
         <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2300,7 +2316,7 @@
         <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2311,7 +2327,7 @@
         <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2322,7 +2338,7 @@
         <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2333,7 +2349,7 @@
         <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2344,7 +2360,7 @@
         <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2355,7 +2371,7 @@
         <v>135</v>
       </c>
       <c r="D68" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2366,7 +2382,7 @@
         <v>137</v>
       </c>
       <c r="D69" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2377,7 +2393,7 @@
         <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2388,7 +2404,7 @@
         <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2399,7 +2415,7 @@
         <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2410,7 +2426,7 @@
         <v>145</v>
       </c>
       <c r="D73" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2421,7 +2437,7 @@
         <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2432,7 +2448,7 @@
         <v>149</v>
       </c>
       <c r="D75" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2443,7 +2459,7 @@
         <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2454,7 +2470,7 @@
         <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2465,7 +2481,7 @@
         <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2476,7 +2492,7 @@
         <v>157</v>
       </c>
       <c r="D79" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2487,7 +2503,7 @@
         <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2498,7 +2514,7 @@
         <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2509,7 +2525,7 @@
         <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2520,7 +2536,7 @@
         <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2531,7 +2547,7 @@
         <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2558,7 @@
         <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2553,7 +2569,7 @@
         <v>171</v>
       </c>
       <c r="D86" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2564,7 +2580,7 @@
         <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2575,7 +2591,7 @@
         <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2586,7 +2602,7 @@
         <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2597,7 +2613,7 @@
         <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2608,7 +2624,7 @@
         <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2619,7 +2635,7 @@
         <v>183</v>
       </c>
       <c r="D92" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2630,7 +2646,7 @@
         <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2641,7 +2657,7 @@
         <v>187</v>
       </c>
       <c r="D94" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2652,7 +2668,7 @@
         <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2663,7 +2679,7 @@
         <v>191</v>
       </c>
       <c r="D96" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2674,7 +2690,7 @@
         <v>193</v>
       </c>
       <c r="D97" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2685,7 +2701,7 @@
         <v>195</v>
       </c>
       <c r="D98" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2696,7 +2712,7 @@
         <v>197</v>
       </c>
       <c r="D99" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2707,7 +2723,7 @@
         <v>199</v>
       </c>
       <c r="D100" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2718,7 +2734,7 @@
         <v>201</v>
       </c>
       <c r="D101" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2729,7 +2745,7 @@
         <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2740,7 +2756,7 @@
         <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2751,7 +2767,7 @@
         <v>207</v>
       </c>
       <c r="D104" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2762,7 +2778,7 @@
         <v>209</v>
       </c>
       <c r="D105" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2773,7 +2789,7 @@
         <v>211</v>
       </c>
       <c r="D106" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2784,7 +2800,7 @@
         <v>213</v>
       </c>
       <c r="D107" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2795,7 +2811,7 @@
         <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2806,7 +2822,7 @@
         <v>217</v>
       </c>
       <c r="D109" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2817,7 +2833,7 @@
         <v>219</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2828,7 +2844,7 @@
         <v>221</v>
       </c>
       <c r="D111" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2839,7 +2855,7 @@
         <v>223</v>
       </c>
       <c r="D112" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2850,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="D113" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2861,7 +2877,7 @@
         <v>227</v>
       </c>
       <c r="D114" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2872,7 +2888,7 @@
         <v>229</v>
       </c>
       <c r="D115" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2883,7 +2899,7 @@
         <v>231</v>
       </c>
       <c r="D116" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2894,7 +2910,7 @@
         <v>233</v>
       </c>
       <c r="D117" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2905,7 +2921,7 @@
         <v>235</v>
       </c>
       <c r="D118" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2916,7 +2932,7 @@
         <v>237</v>
       </c>
       <c r="D119" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2927,7 +2943,7 @@
         <v>239</v>
       </c>
       <c r="D120" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2938,7 +2954,7 @@
         <v>241</v>
       </c>
       <c r="D121" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2949,7 +2965,7 @@
         <v>243</v>
       </c>
       <c r="D122" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2960,7 +2976,7 @@
         <v>245</v>
       </c>
       <c r="D123" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2971,7 +2987,7 @@
         <v>247</v>
       </c>
       <c r="D124" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2982,7 +2998,7 @@
         <v>249</v>
       </c>
       <c r="D125" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2993,7 +3009,7 @@
         <v>251</v>
       </c>
       <c r="D126" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3004,7 +3020,7 @@
         <v>253</v>
       </c>
       <c r="D127" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3015,7 +3031,7 @@
         <v>255</v>
       </c>
       <c r="D128" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3026,7 +3042,7 @@
         <v>257</v>
       </c>
       <c r="D129" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3037,7 +3053,7 @@
         <v>259</v>
       </c>
       <c r="D130" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3048,7 +3064,7 @@
         <v>261</v>
       </c>
       <c r="D131" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3059,7 +3075,7 @@
         <v>263</v>
       </c>
       <c r="D132" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3070,7 +3086,7 @@
         <v>265</v>
       </c>
       <c r="D133" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3081,7 +3097,7 @@
         <v>267</v>
       </c>
       <c r="D134" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3092,7 +3108,7 @@
         <v>269</v>
       </c>
       <c r="D135" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3103,7 +3119,7 @@
         <v>271</v>
       </c>
       <c r="D136" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3114,7 +3130,7 @@
         <v>273</v>
       </c>
       <c r="D137" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3125,7 +3141,7 @@
         <v>275</v>
       </c>
       <c r="D138" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3136,7 +3152,7 @@
         <v>277</v>
       </c>
       <c r="D139" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3147,7 +3163,7 @@
         <v>279</v>
       </c>
       <c r="D140" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3158,7 +3174,7 @@
         <v>281</v>
       </c>
       <c r="D141" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3169,7 +3185,7 @@
         <v>283</v>
       </c>
       <c r="D142" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3180,7 +3196,7 @@
         <v>285</v>
       </c>
       <c r="D143" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3191,7 +3207,7 @@
         <v>287</v>
       </c>
       <c r="D144" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3202,7 +3218,7 @@
         <v>289</v>
       </c>
       <c r="D145" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3213,7 +3229,7 @@
         <v>291</v>
       </c>
       <c r="D146" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3240,7 @@
         <v>293</v>
       </c>
       <c r="D147" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3235,7 +3251,7 @@
         <v>295</v>
       </c>
       <c r="D148" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3246,7 +3262,7 @@
         <v>297</v>
       </c>
       <c r="D149" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3257,7 +3273,7 @@
         <v>299</v>
       </c>
       <c r="D150" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3268,7 +3284,7 @@
         <v>301</v>
       </c>
       <c r="D151" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3279,7 +3295,7 @@
         <v>303</v>
       </c>
       <c r="D152" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3290,7 +3306,7 @@
         <v>305</v>
       </c>
       <c r="D153" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3301,7 +3317,7 @@
         <v>307</v>
       </c>
       <c r="D154" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3312,7 +3328,7 @@
         <v>309</v>
       </c>
       <c r="D155" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3323,7 +3339,7 @@
         <v>311</v>
       </c>
       <c r="D156" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3334,7 +3350,7 @@
         <v>313</v>
       </c>
       <c r="D157" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3345,7 +3361,7 @@
         <v>315</v>
       </c>
       <c r="D158" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3356,7 +3372,7 @@
         <v>317</v>
       </c>
       <c r="D159" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3367,7 +3383,7 @@
         <v>319</v>
       </c>
       <c r="D160" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3378,7 +3394,7 @@
         <v>321</v>
       </c>
       <c r="D161" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3389,7 +3405,7 @@
         <v>323</v>
       </c>
       <c r="D162" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3400,7 +3416,7 @@
         <v>325</v>
       </c>
       <c r="D163" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3411,7 +3427,7 @@
         <v>327</v>
       </c>
       <c r="D164" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3422,7 +3438,7 @@
         <v>329</v>
       </c>
       <c r="D165" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3433,7 +3449,7 @@
         <v>331</v>
       </c>
       <c r="D166" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3444,7 +3460,7 @@
         <v>333</v>
       </c>
       <c r="D167" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3455,7 +3471,7 @@
         <v>335</v>
       </c>
       <c r="D168" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3466,358 +3482,516 @@
         <v>337</v>
       </c>
       <c r="D169" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>338</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D170" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E170" s="1">
+        <v>10086516</v>
+      </c>
+      <c r="F170" s="1">
+        <v>8050</v>
+      </c>
+      <c r="G170" s="1">
+        <v>4400097565</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I170">
+        <v>600006152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E171" s="1">
+        <v>10086505</v>
+      </c>
+      <c r="F171" s="1">
+        <v>8030</v>
+      </c>
+      <c r="G171" s="1">
+        <v>4400097565</v>
+      </c>
+      <c r="H171" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D171" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>600006153</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D172" t="s">
-        <v>403</v>
+        <v>346</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E172" s="1">
+        <v>10086504</v>
+      </c>
+      <c r="F172" s="1">
+        <v>8040</v>
+      </c>
+      <c r="G172" s="1">
+        <v>4400097565</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I172">
+        <v>600006154</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E173" s="1">
-        <v>10086501</v>
+        <v>10086521</v>
       </c>
       <c r="F173" s="1">
-        <v>8070</v>
+        <v>8060</v>
       </c>
       <c r="G173" s="1">
         <v>4400097565</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>406</v>
+        <v>341</v>
+      </c>
+      <c r="I173">
+        <v>600006155</v>
       </c>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D174" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D175" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E175" s="1">
+        <v>10086575</v>
+      </c>
+      <c r="F175" s="1">
+        <v>23730</v>
+      </c>
+      <c r="G175" s="1">
+        <v>4400097566</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I175">
+        <v>600006156</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D176" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E176" s="1">
+        <v>10086492</v>
+      </c>
+      <c r="F176" s="1">
+        <v>23720</v>
+      </c>
+      <c r="G176" s="1">
+        <v>4400097566</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I176">
+        <v>600006157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D177" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E177" s="1">
+        <v>10086493</v>
+      </c>
+      <c r="F177" s="1">
+        <v>8020</v>
+      </c>
+      <c r="G177" s="1">
+        <v>4400097565</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I177">
+        <v>600006158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E178" s="1">
-        <v>10086597</v>
-      </c>
-      <c r="F178" s="1">
-        <v>8080</v>
-      </c>
-      <c r="G178" s="1">
-        <v>4400097565</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>407</v>
+        <v>364</v>
+      </c>
+      <c r="D178" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D179" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D180" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D181" t="s">
-        <v>403</v>
+        <v>370</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E181" s="1">
+        <v>10086339</v>
+      </c>
+      <c r="F181" s="1">
+        <v>23680</v>
+      </c>
+      <c r="G181" s="1">
+        <v>4400097566</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I181">
+        <v>600006159</v>
       </c>
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D182" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D183" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D184" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D185" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E185" s="1">
+        <v>10086491</v>
+      </c>
+      <c r="F185" s="1">
+        <v>23710</v>
+      </c>
+      <c r="G185" s="1">
+        <v>4400097566</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I185">
+        <v>600006160</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D186" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E186" s="1">
+        <v>10086434</v>
+      </c>
+      <c r="F186" s="1">
+        <v>23700</v>
+      </c>
+      <c r="G186" s="1">
+        <v>4400097566</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I186">
+        <v>600006161</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D187" t="s">
-        <v>403</v>
+        <v>385</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E187" s="1">
+        <v>10086426</v>
+      </c>
+      <c r="F187" s="1">
+        <v>23690</v>
+      </c>
+      <c r="G187" s="1">
+        <v>4400097566</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I187">
+        <v>600006162</v>
       </c>
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D188" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D189" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D190" t="s">
-        <v>403</v>
+        <v>392</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E190" s="1">
+        <v>10086488</v>
+      </c>
+      <c r="F190" s="1">
+        <v>8010</v>
+      </c>
+      <c r="G190" s="1">
+        <v>4400097565</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I190">
+        <v>600006163</v>
       </c>
     </row>
     <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D191" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D192" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="D193" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D194" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D195" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D196" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D197" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H197">
+  <autoFilter ref="A1:I195">
     <filterColumn colId="3">
       <filters>
-        <filter val="Factura registrada"/>
+        <filter val="Factura Contabilizada, no enviada"/>
       </filters>
     </filterColumn>
   </autoFilter>
